--- a/ali.xlsx
+++ b/ali.xlsx
@@ -436,720 +436,720 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Relojes de cuarzo minimalistas para hombres, relojes de negocios, relojes de moda, nuevos y populares</t>
+          <t>LEMFO reloj hombre reloj inteligente relojes inteligentes LT10 para hombre mujer accesorio de pulsera deportivo resistente al agua con Bluetooth llamadas seguimiento de actividad y música regalo para Android 2024 2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SYNOKE-reloj Digital de Montañismo para hombre, resistente al agua, resistente a los golpes, pantalla grande, para correr al aire libre, reloj de moda para estudiantes, guapo, nuevo</t>
+          <t>Reloj de cuarzo con tachuelas de diamante para mujer, correa de reloj femenina Retro luminosa, reloj minimalista moderno, exquisito y práctico, nuevo, 2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$38,52</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SYNOKE-reloj con correa para hombre, accesorio deportivo multifuncional, resistente al agua, pantalla grande, luminoso, LED, Digital, a la moda</t>
+          <t>Reloj inteligente multifuncional para hombre y mujer, pulsera deportiva con Bluetooth, Monitor de sueño y música, D20, Y68</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$72,09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Karchilor-reloj inteligente deportivo para hombre, accesorio de pulsera con llamadas, Bluetooth, pantalla de alta definición, compatible con Android e Ios, 2024, 1,85</t>
+          <t>TSAR BOMBA Reloj para hombre marca de lujo diseño Tonneau reloj resistente al agua reloj de pulsera de acero inoxidable reloj rectangular de moda para hombre</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$246,37</t>
+          <t>$2.698,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3 piezas de relojes deportivos de cuarzo para hombre, pulsera lujosa de aleación de plata, de negocios, de ocio, a la moda</t>
+          <t>Reloj inteligente T800 U2 para hombre y mujer, pulsera con NFC, seguimiento GPS, Bluetooth, llamadas, BT, juegos de música, carga inalámbrica, novedad de 2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$84,88</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reloj de cuarzo con cadena de cuero para hombre, pulsera y collar, con estilo, simple, graduado, selección de regalo de fiesta</t>
+          <t>IWO-reloj inteligente T900 Ultra 2, accesorio de pulsera resistente al agua con llamadas, Bluetooth, NFC, control del ritmo cardíaco, 2,2 pulgadas, inalámbrico, Fitness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$82,71</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Reloj decorativo informal para hombre, pulsera de cuarzo con esfera de tres ojos, banda de cuero, sin caja, 5 unidades por juego</t>
+          <t>Relojes digitales deportivos LED para hombres, reloj electrónico de esfera cuadrada pequeña Simple, banda de silicona, reloj informal de moda para hombres</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Reloj inteligente OPPO Watch X, dispositivo con memoria 4G, música, vídeo, llamadas por Bluetooth, resistente al agua IP68, AMOLED, auriculares TWS, novedad de 2024</t>
+          <t>Reloj inteligente con GPS para hombre y mujer, pulsera con temperatura corporal, BT, llamadas, NFC, siempre en pantalla, para Apple y Android, 9, 2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>$549,21</t>
+          <t>$401,99</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GAIETY-reloj de cuarzo para hombre, accesorio de pulsera resistente al agua con correa de lujo, complemento masculino de marca de lujo con esfera redonda, ideal para estudiantes de negocios</t>
+          <t>Reloj de pulsera de cuarzo de acero inoxidable plateado de lujo, reloj de negocios para hombres</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$57,03</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Conjunto de 5 piezas de reloj de cuarzo genuino para hombre, conjunto de joyería de cuero, portátil, para reuniones de actividades y negocios</t>
+          <t>Reloj inteligente para hombre y mujer, pulsera con pantalla a Color de 2023 pulgadas, completamente táctil, esfera personalizada, Bluetooth, llamadas, novedad de 1,44</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$122,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Correa de acero de aleación para hombre, viento mecánico con diseño de reloj de cuarzo, calendario, color negro, 1 piezas</t>
+          <t>Relojes digitales para hombre y mujer, pulsera deportiva resistente al agua, reloj de pulsera LED electrónico dorado, 2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Reloj inteligente con GPS para hombre y mujer, pulsera con temperatura corporal, BT, llamadas, NFC, siempre en pantalla, para Apple y Android, 9, 2024</t>
+          <t>POEDAGAR-Reloj deportivo de lujo para hombre, cronógrafo de cuarzo, resistente al agua, con fecha y semana, luminoso, de acero inoxidable</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>$389,81</t>
+          <t>$316,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Reloj de pulsera de cuarzo para Hombre, cronógrafo con manecillas luminosas, de lujo, deportivo, militar, informal, de nailon</t>
+          <t>Reloj de negocios para hombre, cronógrafo de cuarzo, resistente al agua 30M, con calendario y función de fecha, de acero inoxidable, regalo, 248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$34,5</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Reloj de cuarzo para hombre, cronógrafo de lujo de alta calidad, a la moda, de alta gama, con diamantes de Mantianxing, para negocios</t>
+          <t>LEMFO-reloj inteligente LT10 para hombre y mujer relojes caballero pulsera con pantalla de 2024 pulgadas celulares alta gama nuevos 2024 Bluetooth choice llamadas deporte Fitness regalo 2,01 blackview relógio</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GENEVA-Reloj de pulsera de cuarzo para hombre, cronógrafo creativo de seis Pines, con correa de acero de aleación, de lujo, nuevo</t>
+          <t>Reloj Digital deportivo para hombre, pulsera electrónica militar multifunción con esfera grande, despertador luminoso, resistente al agua</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Huawei-reloj inteligente 4 Pro para hombre, accesorio de pulsera resistente al agua IP68 con pantalla HD de 360x360, Bluetooth, llamadas, NFC, control del ritmo cardíaco y del azúcar en la sangre, novedad de 2023</t>
+          <t>Reloj inteligente 9 ultra Pro MAX Gen 2 para hombre y mujer, pulsera con Pantalla Amoled de 49mm, carga inalámbrica de alta frecuencia de actualización, novedad de 2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>$603,33</t>
+          <t>$428,11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Relojes luminosos para hombre, pulsera electrónica, militar, resistente al agua, para deportes al aire libre, de silicona, a la moda</t>
+          <t>Relojes digitales LED de lujo para hombres, reloj electrónico de acero inoxidable, oro, plata, moda de negocios, masculino</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>$52,77</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Reloj de acero inoxidable de banda superior para mujer, relojes digitales luminosos informales, reloj de pulsera con esfera negra, reloj de moda</t>
+          <t>Reloj de cuarzo con esfera de escala Simple para hombre, correa de cuero, conjunto de collar y pulsera, 3 piezas por juego</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Relojes digitales para hombre y mujer, pulsera deportiva resistente al agua, reloj de pulsera LED electrónico dorado</t>
+          <t>Reloj de pulsera de cuarzo para hombre, cronógrafo con gafas, estilo Retro, informal, color negro, a la moda</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>$46,45</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Reloj inteligente con GPS para hombre y mujer, pulsera con pantalla de 2024 pulgadas, resistente al agua, llamadas BT, carga inalámbrica, NFC, serie Ultra 9, IW9, 2,05</t>
+          <t>POEDAGAR-Reloj deportivo de cuarzo para hombre, cronógrafo luminoso de acero inoxidable, resistente al agua, de lujo</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>$376,26</t>
+          <t>$308,64</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BINBOND-Reloj de pulsera de cuarzo para hombre, cronógrafo cuadrado de acero inoxidable, de negocios, de lujo, a la moda</t>
+          <t>Xiaomi-reloj inteligente para hombre y mujer, pulsera Digital con pantalla táctil completa, deporte, Fitness, llamada BT, regalo, nuevo, 2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>$49,91</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Correa de acero de aleación negra para hombre, reloj de cuarzo con diseño de máquina de viento de negocios, 3 piezas, calendario con corona de León acrílica, conjunto de cuentas</t>
+          <t>BINBOND-B5552 Lnternational para hombre, reloj de pulsera deportivo, militar, de acero, resistente al agua hasta 50M, luminoso, de negocios</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Correa de reloj de aleación de lujo para hombres, ajuste de diamante de escala romana, reloj de cuarzo de tendencia de moda para reunión de negocios de lujo</t>
+          <t>Relojes inteligentes deportivos con Bluetooth, pulsera de Fitness resistente al agua con pantalla a Color, Monitor de sueño y presión arterial</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Huawei-reloj inteligente GT4 Pro para hombre, pulsera con NFC, GPS, pantalla HD de x 360 360, control del ritmo cardíaco, llamadas, Bluetooth, novedad de 2024</t>
+          <t>PAGANI DESIGN-reloj automático de lujo para hombre, accesorio de pulsera resistente al agua de 43MM, con cristal de zafiro, 100m</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$513,89</t>
+          <t>$1.171,69</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MAYZHISU Y02 reloj Digital para hombre, deportivo, electrónico, Fitness, militar, multifunción, regalo para niños</t>
+          <t>Reloj deportivo de cuarzo para hombre, cronógrafo militar con correa de silicona, marca de lujo, resistente al agua, nuevo, 2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$46,98</t>
+          <t>$73,94</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Reloj de diseño de lujo para hombre, relojes luminosos, correa de nailon de malla a la moda, reloj de mano de aleación de viento, reloj minimalista para hombre</t>
+          <t>Reloj con correa de acero inoxidable para hombre, cronógrafo de cuarzo con esfera grande, luminoso, sencillo, estilo británico, tendencia digital, a la moda</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>$37,78</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Reloj inteligente T10 U2 para hombre y mujer, pulsera con NFC, seguimiento GPS, Bluetooth, llamadas, BT, juegos de música, carga inalámbrica, novedad de 2024</t>
+          <t>BINBOND-reloj deportivo de cuarzo para hombre, cronógrafo luminoso de acero inoxidable, marca superior de lujo, resistente al agua</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$76,96</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POEDAGAR-Reloj deportivo de cuarzo para hombre, cronógrafo luminoso de acero inoxidable, resistente al agua, de lujo</t>
+          <t>IWO-reloj inteligente 9 para hombre y mujer, pulsera con NFC, BT, llamadas, control del ritmo cardíaco, Pantalla Amoled resistente al agua, carga inalámbrica, 450Mah</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$128,57</t>
+          <t>$434,9</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DQG-Reloj de cuarzo de acero inoxidable para hombre y Mujer, accesorio de marca de lujo con cristal, informal, gran oferta</t>
+          <t>Reloj inteligente T900 U2 para hombre y mujer, pulsera con NFC, seguimiento GPS, Bluetooth, llamadas, BT, juegos de música, carga inalámbrica, novedad de 2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YIKAZE-relojes deportivos multifunción para hombre y mujer, reloj Digital militar, resistente al agua, pulsera electrónica Fitenss para estudiante</t>
+          <t>GAIETY-reloj de cuarzo para hombre, accesorio de pulsera resistente al agua con correa de lujo, complemento masculino de marca de lujo con esfera redonda, ideal para estudiantes de negocios</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Reloj de cuarzo con tachuelas de diamante para mujer, correa de reloj femenina Retro luminosa, reloj minimalista moderno, exquisito y práctico, nuevo, 2024</t>
+          <t>Llavero Unisex de moda, reloj de bolsillo, llavero de aleación de Metal, reloj con forma de búho Vintage, llavero para bolso, coche, regalos de cumpleaños</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>reloj hombre semiesqueleto ocio empresarial movimiento automático clásico cuero cosas baratas Reloj Hombre</t>
+          <t>UEWNFD-Reloj de marca de lujo CLEAN NOOB VSF ZF PPF BT VS 3K para hombre, calibre 3135/3235, réplica de mujer, 4130, 3285</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>$245,51</t>
+          <t>$9.623,6</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SYNOKE-reloj Digital deportivo para hombre, cronógrafo con pantalla LED, alarma, resistente al agua, militar, 3Bar</t>
+          <t>Reloj Digital LED 3D, decoración de pared, modo nocturno brillante, decoración para dormitorio, reloj electrónico ajustable, estética para habitación</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SYNOKE-reloj Digital militar para hombre, accesorio deportivo, resistente al agua, multifuncional, estilo Retro, a la moda, ideal para estudiantes</t>
+          <t>Reloj deportivo multifunción para Hombre, pulsera Digital militar luminosa, pantalla grande LED, electrónica, resistente al agua</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Reloj Ultra barato, venta al por mayor, liquidación a granel, colores mezclados, lote aleatorio de 100 piezas, sin tipo de cierre para ropa al aire libre</t>
+          <t>BINBOND-Reloj de pulsera de cuarzo para hombre, accesorio masculino de lujo, resistente al agua, luminoso, con fecha y semana, de alta calidad</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IWO-reloj inteligente 9 para hombre y mujer, pulsera con NFC, BT, llamadas, control del ritmo cardíaco, Pantalla Amoled resistente al agua, carga inalámbrica, 450Mah</t>
+          <t>POEDAGAR-reloj de pulsera de lujo para hombre, cronógrafo luminoso, resistente al agua, de cuarzo, de acero inoxidable</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$391,3</t>
+          <t>$342,16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Conjunto de 4 piezas para hombre, cartera con gafas, reloj, bolso de diseñador de marca de lujo, Incluye caja de pulsera para el trabajo y Deporte</t>
+          <t>Relojes brillantes para hombre y mujer, con pantalla multifunción de 1,44 reloj despertador ", 128x128, recuerdo de salud</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Reloj deportivo electrónico para hombre y mujer, pulsera Digital LED, de silicona, Simple, informal, a la moda</t>
+          <t>BINBOND-Reloj de pulsera de acero inoxidable para hombre, cronógrafo de lujo con botón oculto, cierre luminoso, resistente al agua, con fecha y semana</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$26,65</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 reloj de pulsera de cuarzo con correa de acero a la moda para hombre + 1 pulsera de aleación versátil</t>
+          <t>Xiaomi-reloj inteligente para hombre y mujer, pulsera Digital con pantalla táctil completa, deporte, Fitness, llamada BT, regalo, nuevo, 2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$130,24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Reloj inteligente para hombre y mujer, pulsera con llamadas BT, NFC, pantalla que muestra la temperatura corporal, Fitness, Serie 8, para Apple y Android, 2024</t>
+          <t>Karchilor-reloj inteligente para hombre y mujer, accesorio de pulsera resistente al agua con llamadas, Bluetooth, Monitor de salud, compatible con Android e Ios</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>$386,05</t>
+          <t>$165,17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Reloj de pulsera de cuarzo deportivo para hombre, cronógrafo de nailon, luminoso, clásico, a la moda, regalo, superventas</t>
+          <t>Reloj deportivo de cuarzo para hombre, cronógrafo con tres ojos, esfera azul, correa de cuero, estilo informal</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$57,44</t>
+          <t>$89,11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Xiaomi-reloj inteligente deportivo para hombre y mujer, pulsera Digital con Bluetooth, alarma y Control de música</t>
+          <t>Xiaomi-reloj inteligente para hombre y mujer, pulsera Digital con pantalla táctil completa, deporte, Fitness, llamada BT, regalo, nuevo, 2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Reloj analógico de cuarzo para hombre, cronógrafo a escala romana, 1 piezas, ideal para regalo, con indicador de Fecha</t>
+          <t>Kegllect-reloj ejecutivo de cuarzo para hombre, cronógrafo de acero inoxidable, regalo</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$48,75</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Reloj inteligente deportivo para hombre, dispositivo resistente al agua IP68, con Pantalla AMOLED HD, control del ritmo cardíaco y GPS, para exteriores, Android, novedad de 2024</t>
+          <t>HUAWEI-reloj inteligente GT4 Pro para hombre, accesorio de pulsera resistente al agua IP68 con llamadas, Bluetooth, GPS, NFC, Pantalla AMOLED de 360x360, 2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$456,81</t>
+          <t>$568,61</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Reloj de pulsera de cuarzo con diamantes de imitación para hombre, conjunto de pulsera de cuarzo con correa de acero inoxidable, calendario completo de lujo, 2 piezas por juego</t>
+          <t>YIKAZE-relojes militares para hombre, luminosos, resistentes a los golpes, deportivos, correa de lona, reloj de pulsera de cuarzo Simple para exteriores</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$42,46</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Reloj de cuarzo informal para hombre, esfera fácil de leer, correa de cuero y hebilla de Pin, regalo de cumpleaños</t>
+          <t>Nuevo reloj de pulsera de lujo para hombre, reloj de pulsera de cuarzo de cuero marrón a la moda de negocios, juego de regalo de Relogio Masculino</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Reloj inteligente DZ09 para hombre y mujer, pulsera con respuesta a llamadas, seguimiento de actividad deportiva, Dial personalizado, regalo para teléfono Apple</t>
+          <t>Qaurtz-Reloj de pulsera deportivo para hombre, cronógrafo de alta calidad, Ultra suave, con correa y función de fecha automática</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$563,67</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OLEVS-reloj mecánico totalmente automático para hombre, cronógrafo resistente al agua, multifuncional, luminoso, fase lunar, disco estrellado, marca Original</t>
+          <t>Reloj mecánico automático para hombre, cronógrafo resistente al agua con movimiento GMT 2024, zafiro luminoso, Brezel de cerámica, 3285 Clean 3285</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$1.205,32</t>
+          <t>$16.523,33</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Conjunto de 3 piezas para hombre, relojes de negocios a la moda, pulsera de plata informal, collar de cuarzo de acero inoxidable, Masculino</t>
+          <t>Reloj de negocios Simple para hombre, reloj de vestir informal con correa, estilo Wish Geneva, a la moda</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$53,77</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kegllect-reloj ejecutivo de cuarzo para hombre, cronógrafo de acero inoxidable, regalo</t>
+          <t>Reloj de pulsera de cuarzo para hombre, cronógrafo de acero inoxidable a la moda, de lujo, con calendario, para negocios, novedad</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>$38,95</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Reloj inteligente 4G para niños, Mini teléfono con llamada, SOS, cámara, reloj de dibujos animados de 3 estilos, regalo de cumpleaños y Navidad para niños y niñas</t>
+          <t>Relojes digitales LED para hombre, luminosos, deportivos, resistentes al agua, con fecha, militar, Masculino</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$43,8</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Huawei-reloj inteligente GT4 Pro para hombre, accesorio de pulsera resistente al agua IP68 con GPS, control del ritmo cardíaco, llamadas, Bluetooth, pantalla HD de 360x360</t>
+          <t>GMT-Reloj de pulsera de acero inoxidable para hombre, cronógrafo mecánico automático de alta calidad, calibre maestro 2, bisel de cerámica 126710, RLX, PEPSI, 904L, 3285</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$595,09</t>
+          <t>$2.749,6</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Relojes digitales LED para hombre, luminosos, deportivos, resistentes al agua, con fecha, militar, Masculino</t>
+          <t>Reloj deportivo electrónico para hombre y mujer, pulsera Digital LED, de silicona, Simple, informal, a la moda</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GENEVA-reloj de cuarzo con correa de lujo para hombre, accesorio de pulsera resistente al agua con diseño Redondo, complemento masculino deportivo de marca de lujo perfecto para negocios y estudiantes</t>
+          <t>Reloj de bolsillo de enfermera de Ángel de amor para hombres y mujeres, reloj colgante de pecho, aguja de luz nocturna, lindo reloj de enfermera de dibujos animados, estudiante</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Reloj electrónico deportivo para hombres y mujeres, relojes digitales LED cuadrados para estudiantes de secundaria, negro y gris</t>
+          <t>Conjunto de 3 piezas para hombre, reloj de pulsera de cuarzo y cuero, informal, de lujo, deportivo, de negocios</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Reloj inteligente deportivo para hombre y mujer, pulsera resistente al agua con Bluetooth, Monitor de ritmo cardíaco y sueño para Android e ios, novedad de 2023</t>
+          <t>Reloj inteligente para hombre y mujer, pulsera con llamadas BT, NFC, pantalla que muestra la temperatura corporal, Fitness, Serie 8, para Apple y Android, 2024</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$167,49</t>
+          <t>$508,71</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Reloj deportivo electrónico para hombre y mujer, pulsera Digital LED, de silicona, Simple, informal, a la moda</t>
+          <t>Reloj de pulsera de cuarzo para hombre, cronógrafo con correa de malla de acero inoxidable, de lujo, plateado</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$59,06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Reloj deportivo Digital Led para niños y niñas, pulsera electrónica con correa de silicona, resistente al agua, regalo</t>
+          <t>Reloj inteligente I8 Pro Max para hombre y mujer, pulsera con respuesta a llamadas, rastreador de actividad deportiva, Dial personalizado, regalo para teléfono Apple, PK IWO 27 X8 T500</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$29,11</t>
+          <t>$19,5</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Xiaomi-reloj inteligente para hombre y mujer, pulsera Digital con pantalla táctil completa, deporte, Fitness, llamada BT, regalo, nuevo, 2024</t>
+          <t>CURREN-reloj deportivo de cuero para hombre, cronógrafo de cuarzo militar, Masculino</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$19,08</t>
+          <t>$176,03</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Huawei-reloj inteligente Xiaomi GT3 Pro para hombre, accesorio de pulsera resistente al agua IP68 con llamadas, Bluetooth, control del ritmo cardíaco, Pantalla AMOLED HD de 390X390, 2024</t>
+          <t>OLEVS-Reloj de pulsera de cuarzo para Hombre, cronógrafo de lujo, de acero inoxidable, Original, a la moda, resistente al agua</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$559,38</t>
+          <t>$434,09</t>
         </is>
       </c>
     </row>
